--- a/Code/Results/Cases/Case_7_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.876201907926713</v>
+        <v>3.8762019079266</v>
       </c>
       <c r="C2">
-        <v>1.065439828585511</v>
+        <v>1.065439828585284</v>
       </c>
       <c r="D2">
         <v>0.0397609517637747</v>
       </c>
       <c r="E2">
-        <v>0.1273073984309008</v>
+        <v>0.1273073984309363</v>
       </c>
       <c r="F2">
         <v>2.481885710068326</v>
       </c>
       <c r="G2">
-        <v>0.0007677095019633988</v>
+        <v>0.0007677095020204643</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.24572670643002</v>
+        <v>1.245726706430048</v>
       </c>
       <c r="N2">
-        <v>1.048969886037526</v>
+        <v>1.048969886037568</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.3336670931306</v>
+        <v>3.333667093130487</v>
       </c>
       <c r="C3">
         <v>0.9146375268833538</v>
       </c>
       <c r="D3">
-        <v>0.03874096906674396</v>
+        <v>0.03874096906684699</v>
       </c>
       <c r="E3">
         <v>0.1100376120638487</v>
@@ -483,7 +483,7 @@
         <v>2.193492080235529</v>
       </c>
       <c r="G3">
-        <v>0.0007777246182439096</v>
+        <v>0.0007777246181881946</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.070437505374642</v>
+        <v>1.070437505374628</v>
       </c>
       <c r="N3">
-        <v>1.060379695570077</v>
+        <v>1.060379695570134</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.007207072527194</v>
+        <v>3.007207072526967</v>
       </c>
       <c r="C4">
-        <v>0.8238533119880742</v>
+        <v>0.8238533119879037</v>
       </c>
       <c r="D4">
-        <v>0.03825699294340268</v>
+        <v>0.03825699294330676</v>
       </c>
       <c r="E4">
-        <v>0.09976752479006379</v>
+        <v>0.09976752479008155</v>
       </c>
       <c r="F4">
-        <v>2.022740127635004</v>
+        <v>2.022740127634989</v>
       </c>
       <c r="G4">
-        <v>0.0007840082265645607</v>
+        <v>0.0007840082265654303</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9652098184898179</v>
+        <v>0.9652098184898321</v>
       </c>
       <c r="N4">
-        <v>1.069628339020852</v>
+        <v>1.069628339020881</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.875593556516151</v>
+        <v>2.875593556516208</v>
       </c>
       <c r="C5">
-        <v>0.7872388981595293</v>
+        <v>0.7872388981600409</v>
       </c>
       <c r="D5">
-        <v>0.0380917329385646</v>
+        <v>0.0380917329385575</v>
       </c>
       <c r="E5">
-        <v>0.09565459941173415</v>
+        <v>0.09565459941170928</v>
       </c>
       <c r="F5">
-        <v>1.954553030662325</v>
+        <v>1.954553030662311</v>
       </c>
       <c r="G5">
-        <v>0.0007866053148918811</v>
+        <v>0.0007866053147903679</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9228420485527167</v>
+        <v>0.9228420485527025</v>
       </c>
       <c r="N5">
-        <v>1.073915626605739</v>
+        <v>1.073915626605753</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.853818186235515</v>
+        <v>2.853818186235458</v>
       </c>
       <c r="C6">
-        <v>0.7811800890185339</v>
+        <v>0.7811800890189886</v>
       </c>
       <c r="D6">
-        <v>0.03806611875759103</v>
+        <v>0.03806611875747379</v>
       </c>
       <c r="E6">
-        <v>0.09497569502339331</v>
+        <v>0.09497569502338976</v>
       </c>
       <c r="F6">
-        <v>1.943309604129183</v>
+        <v>1.943309604129169</v>
       </c>
       <c r="G6">
-        <v>0.000787038835957321</v>
+        <v>0.00078703883590725</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9158354542883487</v>
+        <v>0.9158354542883558</v>
       </c>
       <c r="N6">
         <v>1.074657591764506</v>
@@ -659,19 +659,19 @@
         <v>3.005426646141814</v>
       </c>
       <c r="C7">
-        <v>0.8233580672120695</v>
+        <v>0.823358067211899</v>
       </c>
       <c r="D7">
-        <v>0.03825463949755914</v>
+        <v>0.03825463949746677</v>
       </c>
       <c r="E7">
-        <v>0.09971177856521152</v>
+        <v>0.09971177856524349</v>
       </c>
       <c r="F7">
         <v>2.021815123878326</v>
       </c>
       <c r="G7">
-        <v>0.0007840431008536853</v>
+        <v>0.000784043100745848</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9646364659120721</v>
+        <v>0.9646364659120792</v>
       </c>
       <c r="N7">
-        <v>1.069684116810279</v>
+        <v>1.069684116810294</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.68759328296477</v>
+        <v>3.687593282964713</v>
       </c>
       <c r="C8">
-        <v>1.013020639575558</v>
+        <v>1.013020639575359</v>
       </c>
       <c r="D8">
-        <v>0.0393772869986293</v>
+        <v>0.0393772869985014</v>
       </c>
       <c r="E8">
-        <v>0.1212760939877846</v>
+        <v>0.1212760939877171</v>
       </c>
       <c r="F8">
         <v>2.381011857481056</v>
       </c>
       <c r="G8">
-        <v>0.0007711365545756746</v>
+        <v>0.0007711365545740302</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.184731323187862</v>
+        <v>1.184731323187847</v>
       </c>
       <c r="N8">
-        <v>1.05240945717523</v>
+        <v>1.052409457175273</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.091152967847506</v>
+        <v>5.091152967847393</v>
       </c>
       <c r="C9">
         <v>1.403121305530021</v>
@@ -759,13 +759,13 @@
         <v>0.04290692059600332</v>
       </c>
       <c r="E9">
-        <v>0.1668144786073995</v>
+        <v>0.1668144786073782</v>
       </c>
       <c r="F9">
-        <v>3.145542919539082</v>
+        <v>3.145542919539054</v>
       </c>
       <c r="G9">
-        <v>0.0007467542854704887</v>
+        <v>0.0007467542853431768</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>1.640036522131268</v>
       </c>
       <c r="N9">
-        <v>1.03867374094213</v>
+        <v>1.038673740942144</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>1.707025755590621</v>
       </c>
       <c r="D10">
-        <v>0.04663850347808562</v>
+        <v>0.04663850347807141</v>
       </c>
       <c r="E10">
-        <v>0.2032389094352567</v>
+        <v>0.2032389094352638</v>
       </c>
       <c r="F10">
-        <v>3.760077389336004</v>
+        <v>3.760077389335976</v>
       </c>
       <c r="G10">
-        <v>0.0007291833442588129</v>
+        <v>0.0007291833443148739</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>1.996558707462114</v>
       </c>
       <c r="N10">
-        <v>1.044660104174767</v>
+        <v>1.044660104174824</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.699541326941699</v>
+        <v>6.699541326941869</v>
       </c>
       <c r="C11">
-        <v>1.850737657278273</v>
+        <v>1.850737657278785</v>
       </c>
       <c r="D11">
-        <v>0.0486753149571868</v>
+        <v>0.04867531495717259</v>
       </c>
       <c r="E11">
-        <v>0.2207248285357508</v>
+        <v>0.2207248285357153</v>
       </c>
       <c r="F11">
-        <v>4.055517929307115</v>
+        <v>4.055517929307143</v>
       </c>
       <c r="G11">
-        <v>0.0007212040704416467</v>
+        <v>0.0007212040705667968</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>2.165593760040508</v>
       </c>
       <c r="N11">
-        <v>1.051914859760757</v>
+        <v>1.051914859760785</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.898250180905677</v>
+        <v>6.898250180905563</v>
       </c>
       <c r="C12">
-        <v>1.906116756922927</v>
+        <v>1.906116756923041</v>
       </c>
       <c r="D12">
-        <v>0.04950498212740229</v>
+        <v>0.04950498212711807</v>
       </c>
       <c r="E12">
-        <v>0.2275058332386664</v>
+        <v>0.2275058332386379</v>
       </c>
       <c r="F12">
-        <v>4.170124668615586</v>
+        <v>4.170124668615557</v>
       </c>
       <c r="G12">
-        <v>0.000718178441944258</v>
+        <v>0.0007181784420014204</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>2.230798131814893</v>
       </c>
       <c r="N12">
-        <v>1.055420106606761</v>
+        <v>1.055420106606775</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.855296829545239</v>
+        <v>6.855296829545125</v>
       </c>
       <c r="C13">
-        <v>1.894144150170348</v>
+        <v>1.894144150170519</v>
       </c>
       <c r="D13">
-        <v>0.0493235290378351</v>
+        <v>0.04932352903760062</v>
       </c>
       <c r="E13">
-        <v>0.2260378324639234</v>
+        <v>0.2260378324639376</v>
       </c>
       <c r="F13">
-        <v>4.145312683336527</v>
+        <v>4.145312683336556</v>
       </c>
       <c r="G13">
-        <v>0.0007188303532533257</v>
+        <v>0.0007188303531969055</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.216698333181043</v>
+        <v>2.216698333181071</v>
       </c>
       <c r="N13">
-        <v>1.054629569509473</v>
+        <v>1.054629569509459</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>6.71581906813816</v>
       </c>
       <c r="C14">
-        <v>1.855273415301951</v>
+        <v>1.855273415302179</v>
       </c>
       <c r="D14">
-        <v>0.04874234059013816</v>
+        <v>0.04874234059001736</v>
       </c>
       <c r="E14">
         <v>0.2212793325361702</v>
       </c>
       <c r="F14">
-        <v>4.064889145861173</v>
+        <v>4.064889145861144</v>
       </c>
       <c r="G14">
-        <v>0.0007209552698448427</v>
+        <v>0.000720955269921004</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.170932888629025</v>
+        <v>2.170932888628968</v>
       </c>
       <c r="N14">
-        <v>1.052187367116574</v>
+        <v>1.052187367116531</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.630835773072306</v>
+        <v>6.630835773072249</v>
       </c>
       <c r="C15">
-        <v>1.831594464300338</v>
+        <v>1.831594464300167</v>
       </c>
       <c r="D15">
-        <v>0.04839426441257899</v>
+        <v>0.04839426441271399</v>
       </c>
       <c r="E15">
         <v>0.2183862921657465</v>
       </c>
       <c r="F15">
-        <v>4.015997496002399</v>
+        <v>4.015997496002427</v>
       </c>
       <c r="G15">
-        <v>0.0007222561176652231</v>
+        <v>0.0007222561175935024</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.143062646979743</v>
+        <v>2.143062646979772</v>
       </c>
       <c r="N15">
-        <v>1.050793655061312</v>
+        <v>1.050793655061256</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.150266455124097</v>
+        <v>6.150266455124154</v>
       </c>
       <c r="C16">
-        <v>1.697757869272721</v>
+        <v>1.697757869272493</v>
       </c>
       <c r="D16">
-        <v>0.04651299750872795</v>
+        <v>0.04651299750867111</v>
       </c>
       <c r="E16">
-        <v>0.2021168553072954</v>
+        <v>0.2021168553072172</v>
       </c>
       <c r="F16">
-        <v>3.741125632759349</v>
+        <v>3.741125632759406</v>
       </c>
       <c r="G16">
-        <v>0.0007297045942642429</v>
+        <v>0.0007297045943290836</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.985666783890267</v>
+        <v>1.985666783890252</v>
       </c>
       <c r="N16">
         <v>1.044285841317958</v>
@@ -1129,19 +1129,19 @@
         <v>5.860711076516452</v>
       </c>
       <c r="C17">
-        <v>1.617166469095594</v>
+        <v>1.617166469095764</v>
       </c>
       <c r="D17">
-        <v>0.04545205317182166</v>
+        <v>0.04545205317169376</v>
       </c>
       <c r="E17">
-        <v>0.1923889312547615</v>
+        <v>0.1923889312547686</v>
       </c>
       <c r="F17">
         <v>3.576862501054734</v>
       </c>
       <c r="G17">
-        <v>0.00073427355819633</v>
+        <v>0.0007342735579477718</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>1.891001865691649</v>
       </c>
       <c r="N17">
-        <v>1.041524057305637</v>
+        <v>1.041524057305665</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>5.695919068365242</v>
       </c>
       <c r="C18">
-        <v>1.571314767677791</v>
+        <v>1.571314767677563</v>
       </c>
       <c r="D18">
-        <v>0.04487309091176428</v>
+        <v>0.04487309091179981</v>
       </c>
       <c r="E18">
         <v>0.1868780033871715</v>
@@ -1188,7 +1188,7 @@
         <v>3.483847125554803</v>
       </c>
       <c r="G18">
-        <v>0.0007369032243905562</v>
+        <v>0.0007369032243927052</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.8371834935718</v>
+        <v>1.837183493571814</v>
       </c>
       <c r="N18">
-        <v>1.040354706748346</v>
+        <v>1.040354706748303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.640408319981191</v>
+        <v>5.640408319981077</v>
       </c>
       <c r="C19">
-        <v>1.555871673873185</v>
+        <v>1.55587167387273</v>
       </c>
       <c r="D19">
-        <v>0.04468217159291754</v>
+        <v>0.04468217159290333</v>
       </c>
       <c r="E19">
-        <v>0.1850258154775446</v>
+        <v>0.1850258154776157</v>
       </c>
       <c r="F19">
         <v>3.452592902165946</v>
       </c>
       <c r="G19">
-        <v>0.0007377940469372819</v>
+        <v>0.0007377940469358772</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.819064000634796</v>
+        <v>1.819064000634839</v>
       </c>
       <c r="N19">
-        <v>1.040027834358966</v>
+        <v>1.040027834358881</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.89134948572439</v>
+        <v>5.891349485724106</v>
       </c>
       <c r="C20">
-        <v>1.625692417272262</v>
+        <v>1.625692417272489</v>
       </c>
       <c r="D20">
-        <v>0.04556169319825187</v>
+        <v>0.04556169319820214</v>
       </c>
       <c r="E20">
-        <v>0.1934155742146402</v>
+        <v>0.1934155742146828</v>
       </c>
       <c r="F20">
-        <v>3.594194048688621</v>
+        <v>3.594194048688593</v>
       </c>
       <c r="G20">
-        <v>0.0007337870464871729</v>
+        <v>0.0007337870465625076</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>1.901012467093707</v>
       </c>
       <c r="N20">
-        <v>1.0417739623377</v>
+        <v>1.041773962337672</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.756691926211488</v>
+        <v>6.756691926211317</v>
       </c>
       <c r="C21">
-        <v>1.866663142473101</v>
+        <v>1.866663142472873</v>
       </c>
       <c r="D21">
-        <v>0.04891137962511749</v>
+        <v>0.04891137962525249</v>
       </c>
       <c r="E21">
-        <v>0.2226724445654682</v>
+        <v>0.2226724445655464</v>
       </c>
       <c r="F21">
         <v>4.08843345054251</v>
       </c>
       <c r="G21">
-        <v>0.0007203312936488377</v>
+        <v>0.0007203312937200813</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.184341033100864</v>
+        <v>2.184341033100878</v>
       </c>
       <c r="N21">
         <v>1.052883182988921</v>
@@ -1364,19 +1364,19 @@
         <v>7.341924072768848</v>
       </c>
       <c r="C22">
-        <v>2.029843196576167</v>
+        <v>2.029843196576621</v>
       </c>
       <c r="D22">
-        <v>0.05144675578939939</v>
+        <v>0.05144675578938518</v>
       </c>
       <c r="E22">
-        <v>0.2427398826608993</v>
+        <v>0.2427398826608851</v>
       </c>
       <c r="F22">
-        <v>4.427627618996468</v>
+        <v>4.427627618996439</v>
       </c>
       <c r="G22">
-        <v>0.0007115099373105427</v>
+        <v>0.0007115099373834822</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.376601490548552</v>
+        <v>2.376601490548538</v>
       </c>
       <c r="N22">
-        <v>1.064626521621889</v>
+        <v>1.06462652162196</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>1.942164314957381</v>
       </c>
       <c r="D23">
-        <v>0.0500582109140808</v>
+        <v>0.05005821091370422</v>
       </c>
       <c r="E23">
         <v>0.2319323325076894</v>
       </c>
       <c r="F23">
-        <v>4.244943616238288</v>
+        <v>4.244943616238317</v>
       </c>
       <c r="G23">
-        <v>0.0007162228449104635</v>
+        <v>0.00071622284498285</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.273260214370509</v>
+        <v>2.273260214370538</v>
       </c>
       <c r="N23">
-        <v>1.05790818973118</v>
+        <v>1.057908189731165</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>5.877492678927979</v>
       </c>
       <c r="C24">
-        <v>1.6218363493374</v>
+        <v>1.621836349337343</v>
       </c>
       <c r="D24">
-        <v>0.04551202911663665</v>
+        <v>0.04551202911677166</v>
       </c>
       <c r="E24">
-        <v>0.1929511762065701</v>
+        <v>0.192951176206634</v>
       </c>
       <c r="F24">
-        <v>3.58635406031911</v>
+        <v>3.586354060319081</v>
       </c>
       <c r="G24">
-        <v>0.0007340069889317042</v>
+        <v>0.000734006988931279</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>1.896484802683531</v>
       </c>
       <c r="N24">
-        <v>1.041659684734825</v>
+        <v>1.041659684734839</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.702414405109437</v>
+        <v>4.702414405109494</v>
       </c>
       <c r="C25">
-        <v>1.295057350232241</v>
+        <v>1.295057350232412</v>
       </c>
       <c r="D25">
-        <v>0.04177920934579049</v>
+        <v>0.04177920934591839</v>
       </c>
       <c r="E25">
-        <v>0.1540544722249066</v>
+        <v>0.1540544722248995</v>
       </c>
       <c r="F25">
         <v>2.930751635132509</v>
       </c>
       <c r="G25">
-        <v>0.0007532721345184457</v>
+        <v>0.0007532721345750671</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.51361419405653</v>
+        <v>1.513614194056501</v>
       </c>
       <c r="N25">
-        <v>1.039875666927927</v>
+        <v>1.039875666927998</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.8762019079266</v>
+        <v>2.273016769814319</v>
       </c>
       <c r="C2">
-        <v>1.065439828585284</v>
+        <v>0.711733757560097</v>
       </c>
       <c r="D2">
-        <v>0.0397609517637747</v>
+        <v>0.01885643975650808</v>
       </c>
       <c r="E2">
-        <v>0.1273073984309363</v>
+        <v>0.291334527452598</v>
       </c>
       <c r="F2">
-        <v>2.481885710068326</v>
+        <v>0.8587577355449412</v>
       </c>
       <c r="G2">
-        <v>0.0007677095020204643</v>
+        <v>0.7877397990893797</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004576611146551057</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4785645553850202</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3445357631140027</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.245726706430048</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.048969886037568</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.95676296965771</v>
+      </c>
+      <c r="P2">
+        <v>0.5810273175649243</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.333667093130487</v>
+        <v>1.97547849844355</v>
       </c>
       <c r="C3">
-        <v>0.9146375268833538</v>
+        <v>0.6201085012759506</v>
       </c>
       <c r="D3">
-        <v>0.03874096906684699</v>
+        <v>0.01762579411073872</v>
       </c>
       <c r="E3">
-        <v>0.1100376120638487</v>
+        <v>0.2584999313781182</v>
       </c>
       <c r="F3">
-        <v>2.193492080235529</v>
+        <v>0.7702976781841642</v>
       </c>
       <c r="G3">
-        <v>0.0007777246181881946</v>
+        <v>0.7032260186559398</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002610605390118703</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4445520459097736</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3250757202732331</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.070437505374628</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.060379695570134</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.832456907306927</v>
+      </c>
+      <c r="P3">
+        <v>0.6121952714069394</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.007207072526967</v>
+        <v>1.793222501794702</v>
       </c>
       <c r="C4">
-        <v>0.8238533119879037</v>
+        <v>0.5639974959261451</v>
       </c>
       <c r="D4">
-        <v>0.03825699294330676</v>
+        <v>0.01685819304309533</v>
       </c>
       <c r="E4">
-        <v>0.09976752479008155</v>
+        <v>0.2383917030327538</v>
       </c>
       <c r="F4">
-        <v>2.022740127634989</v>
+        <v>0.7172817174675288</v>
       </c>
       <c r="G4">
-        <v>0.0007840082265654303</v>
+        <v>0.6526021070477981</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00164856547269232</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4244098115359378</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.313842322416221</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9652098184898321</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.069628339020881</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7563209255635357</v>
+      </c>
+      <c r="P4">
+        <v>0.6320817331037869</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.875593556516208</v>
+        <v>1.719029014517304</v>
       </c>
       <c r="C5">
-        <v>0.7872388981600409</v>
+        <v>0.5411575053293518</v>
       </c>
       <c r="D5">
-        <v>0.0380917329385575</v>
+        <v>0.01654242253864524</v>
       </c>
       <c r="E5">
-        <v>0.09565459941170928</v>
+        <v>0.2302041066690705</v>
       </c>
       <c r="F5">
-        <v>1.954553030662311</v>
+        <v>0.6959758002625875</v>
       </c>
       <c r="G5">
-        <v>0.0007866053147903679</v>
+        <v>0.632262440044272</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001313580983975715</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4163748355982904</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3094320905333028</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9228420485527025</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.073915626605753</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7253292936994242</v>
+      </c>
+      <c r="P5">
+        <v>0.6403676184341478</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.853818186235458</v>
+        <v>1.706713021524195</v>
       </c>
       <c r="C6">
-        <v>0.7811800890189886</v>
+        <v>0.537366176756791</v>
       </c>
       <c r="D6">
-        <v>0.03806611875747379</v>
+        <v>0.016489811282419</v>
       </c>
       <c r="E6">
-        <v>0.09497569502338976</v>
+        <v>0.2288447819592676</v>
       </c>
       <c r="F6">
-        <v>1.943309604129169</v>
+        <v>0.6924552061107363</v>
       </c>
       <c r="G6">
-        <v>0.00078703883590725</v>
+        <v>0.6289017551584521</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001261273132921126</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4150507157903007</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3087095405550002</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9158354542883558</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.074657591764506</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7201848684978529</v>
+      </c>
+      <c r="P6">
+        <v>0.6417542948931985</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.005426646141814</v>
+        <v>1.792221629980816</v>
       </c>
       <c r="C7">
-        <v>0.823358067211899</v>
+        <v>0.5636893782319135</v>
       </c>
       <c r="D7">
-        <v>0.03825463949746677</v>
+        <v>0.01685394640218618</v>
       </c>
       <c r="E7">
-        <v>0.09971177856524349</v>
+        <v>0.238281263576738</v>
       </c>
       <c r="F7">
-        <v>2.021815123878326</v>
+        <v>0.7169932057577881</v>
       </c>
       <c r="G7">
-        <v>0.000784043100745848</v>
+        <v>0.652326662002551</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001643822640220449</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4243007650563584</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3137821822725542</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9646364659120792</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.069684116810294</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7559028389450617</v>
+      </c>
+      <c r="P7">
+        <v>0.6321927507687377</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.687593282964713</v>
+        <v>2.170315744725713</v>
       </c>
       <c r="C8">
-        <v>1.013020639575359</v>
+        <v>0.6801037313205427</v>
       </c>
       <c r="D8">
-        <v>0.0393772869985014</v>
+        <v>0.01843462573208754</v>
       </c>
       <c r="E8">
-        <v>0.1212760939877171</v>
+        <v>0.2799982717321754</v>
       </c>
       <c r="F8">
-        <v>2.381011857481056</v>
+        <v>0.8279697136121911</v>
       </c>
       <c r="G8">
-        <v>0.0007711365545740302</v>
+        <v>0.7583184250125186</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003845042607873661</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4666748644617229</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3376698611937456</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.184731323187847</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.052409457175273</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9138550524541671</v>
+      </c>
+      <c r="P8">
+        <v>0.5916145656535239</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.091152967847393</v>
+        <v>2.916767995253224</v>
       </c>
       <c r="C9">
-        <v>1.403121305530021</v>
+        <v>0.9101196186299205</v>
       </c>
       <c r="D9">
-        <v>0.04290692059600332</v>
+        <v>0.02143752881374894</v>
       </c>
       <c r="E9">
-        <v>0.1668144786073782</v>
+        <v>0.3625341940622917</v>
       </c>
       <c r="F9">
-        <v>3.145542919539054</v>
+        <v>1.057256619504273</v>
       </c>
       <c r="G9">
-        <v>0.0007467542853431768</v>
+        <v>0.977619725659963</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01032345837065805</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5562977111057563</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3907815102331327</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.640036522131268</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.038673740942144</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.225730679312349</v>
+      </c>
+      <c r="P9">
+        <v>0.5182904766596028</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.183556884369182</v>
+        <v>3.466935782242786</v>
       </c>
       <c r="C10">
-        <v>1.707025755590621</v>
+        <v>1.076454585264059</v>
       </c>
       <c r="D10">
-        <v>0.04663850347807141</v>
+        <v>0.02418081891565294</v>
       </c>
       <c r="E10">
-        <v>0.2032389094352638</v>
+        <v>0.3981962954341185</v>
       </c>
       <c r="F10">
-        <v>3.760077389335976</v>
+        <v>1.220543517872329</v>
       </c>
       <c r="G10">
-        <v>0.0007291833443148739</v>
+        <v>1.131705788914104</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01635822034834877</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.619121594247332</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4274030596121037</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.996558707462114</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.044660104174824</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.414861636704941</v>
+      </c>
+      <c r="P10">
+        <v>0.4703416749391884</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.699541326941869</v>
+        <v>3.68656686102554</v>
       </c>
       <c r="C11">
-        <v>1.850737657278785</v>
+        <v>1.112890662744434</v>
       </c>
       <c r="D11">
-        <v>0.04867531495717259</v>
+        <v>0.03126341018155898</v>
       </c>
       <c r="E11">
-        <v>0.2207248285357153</v>
+        <v>0.2333103607399352</v>
       </c>
       <c r="F11">
-        <v>4.055517929307143</v>
+        <v>1.173809703109271</v>
       </c>
       <c r="G11">
-        <v>0.0007212040705667968</v>
+        <v>1.066248015530618</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03376712960518446</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5805420958977834</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3849349556134314</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.165593760040508</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.051914859760785</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.153452326389484</v>
+      </c>
+      <c r="P11">
+        <v>0.4724985642688466</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.898250180905563</v>
+        <v>3.755139985049652</v>
       </c>
       <c r="C12">
-        <v>1.906116756923041</v>
+        <v>1.108163729494549</v>
       </c>
       <c r="D12">
-        <v>0.04950498212711807</v>
+        <v>0.03754154491304007</v>
       </c>
       <c r="E12">
-        <v>0.2275058332386379</v>
+        <v>0.145173116288662</v>
       </c>
       <c r="F12">
-        <v>4.170124668615557</v>
+        <v>1.100221045624238</v>
       </c>
       <c r="G12">
-        <v>0.0007181784420014204</v>
+        <v>0.9801787719296584</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07099171335257637</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.53522197737189</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3427305779193475</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.230798131814893</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.055420106606775</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9184626852543261</v>
+      </c>
+      <c r="P12">
+        <v>0.4951196581315784</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.855296829545125</v>
+        <v>3.710618875398609</v>
       </c>
       <c r="C13">
-        <v>1.894144150170519</v>
+        <v>1.0715163853435</v>
       </c>
       <c r="D13">
-        <v>0.04932352903760062</v>
+        <v>0.04346576965858873</v>
       </c>
       <c r="E13">
-        <v>0.2260378324639376</v>
+        <v>0.1100632414557348</v>
       </c>
       <c r="F13">
-        <v>4.145312683336556</v>
+        <v>1.001673065238904</v>
       </c>
       <c r="G13">
-        <v>0.0007188303531969055</v>
+        <v>0.8733355437240675</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1249484015368978</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4820573097457554</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2981776032808554</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.216698333181071</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.054629569509459</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.691960617149519</v>
+      </c>
+      <c r="P13">
+        <v>0.5332249127870838</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.71581906813816</v>
+        <v>3.628537033322175</v>
       </c>
       <c r="C14">
-        <v>1.855273415302179</v>
+        <v>1.031688604913398</v>
       </c>
       <c r="D14">
-        <v>0.04874234059001736</v>
+        <v>0.04749989068574223</v>
       </c>
       <c r="E14">
-        <v>0.2212793325361702</v>
+        <v>0.1168590188452061</v>
       </c>
       <c r="F14">
-        <v>4.064889145861144</v>
+        <v>0.9222696008337437</v>
       </c>
       <c r="G14">
-        <v>0.000720955269921004</v>
+        <v>0.7902598053719316</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.17297765033031</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4417791596405038</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2664398547414848</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.170932888628968</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.052187367116531</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.542295381882667</v>
+      </c>
+      <c r="P14">
+        <v>0.5675881238887825</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.630835773072249</v>
+        <v>3.584533648300123</v>
       </c>
       <c r="C15">
-        <v>1.831594464300167</v>
+        <v>1.015291125554342</v>
       </c>
       <c r="D15">
-        <v>0.04839426441271399</v>
+        <v>0.048273708186926</v>
       </c>
       <c r="E15">
-        <v>0.2183862921657465</v>
+        <v>0.1221393873677048</v>
       </c>
       <c r="F15">
-        <v>4.015997496002427</v>
+        <v>0.8977037285230125</v>
       </c>
       <c r="G15">
-        <v>0.0007222561175935024</v>
+        <v>0.7655280523377712</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1849934808575</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4302980058323698</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2580765950389861</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.143062646979772</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.050793655061256</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5047817721691246</v>
+      </c>
+      <c r="P15">
+        <v>0.5776250017449627</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.150266455124154</v>
+        <v>3.356237556662904</v>
       </c>
       <c r="C16">
-        <v>1.697757869272493</v>
+        <v>0.9518869975335349</v>
       </c>
       <c r="D16">
-        <v>0.04651299750867111</v>
+        <v>0.04563078132255072</v>
       </c>
       <c r="E16">
-        <v>0.2021168553072172</v>
+        <v>0.1152355471441098</v>
       </c>
       <c r="F16">
-        <v>3.741125632759406</v>
+        <v>0.8484069531870233</v>
       </c>
       <c r="G16">
-        <v>0.0007297045943290836</v>
+        <v>0.722248635584819</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.17018403911419</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4144748786846009</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.251497363545667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.985666783890252</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.044285841317958</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4778224593883991</v>
+      </c>
+      <c r="P16">
+        <v>0.5862935617463592</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.860711076516452</v>
+        <v>3.225201005716997</v>
       </c>
       <c r="C17">
-        <v>1.617166469095764</v>
+        <v>0.9243881220082244</v>
       </c>
       <c r="D17">
-        <v>0.04545205317169376</v>
+        <v>0.04144295195379755</v>
       </c>
       <c r="E17">
-        <v>0.1923889312547686</v>
+        <v>0.1011019798001369</v>
       </c>
       <c r="F17">
-        <v>3.576862501054734</v>
+        <v>0.852684735366438</v>
       </c>
       <c r="G17">
-        <v>0.0007342735579477718</v>
+        <v>0.7329036931966613</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.131488584270528</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.423674701553054</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2632234211344056</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.891001865691649</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.041524057305665</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5328912454224124</v>
+      </c>
+      <c r="P17">
+        <v>0.5747369698624496</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.695919068365242</v>
+        <v>3.162220128257502</v>
       </c>
       <c r="C18">
-        <v>1.571314767677563</v>
+        <v>0.9244903808854872</v>
       </c>
       <c r="D18">
-        <v>0.04487309091179981</v>
+        <v>0.03582768579319406</v>
       </c>
       <c r="E18">
-        <v>0.1868780033871715</v>
+        <v>0.1070150658487732</v>
       </c>
       <c r="F18">
-        <v>3.483847125554803</v>
+        <v>0.9038668723939907</v>
       </c>
       <c r="G18">
-        <v>0.0007369032243927052</v>
+        <v>0.7922127077583951</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07885658083007741</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4558049803604263</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2927732876569777</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.837183493571814</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.040354706748303</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6780800104871503</v>
+      </c>
+      <c r="P18">
+        <v>0.5491701836931995</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.640408319981077</v>
+        <v>3.15853121530472</v>
       </c>
       <c r="C19">
-        <v>1.55587167387273</v>
+        <v>0.9470367250598599</v>
       </c>
       <c r="D19">
-        <v>0.04468217159290333</v>
+        <v>0.02998921245948338</v>
       </c>
       <c r="E19">
-        <v>0.1850258154776157</v>
+        <v>0.1706076716205693</v>
       </c>
       <c r="F19">
-        <v>3.452592902165946</v>
+        <v>0.990840821321143</v>
       </c>
       <c r="G19">
-        <v>0.0007377940469358772</v>
+        <v>0.88923750212291</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03513691658302776</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5052231579463182</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3361723807475485</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.819064000634839</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.040027834358881</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9067908251954506</v>
+      </c>
+      <c r="P19">
+        <v>0.5208902008257361</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.891349485724106</v>
+        <v>3.321874306092127</v>
       </c>
       <c r="C20">
-        <v>1.625692417272489</v>
+        <v>1.032440546762672</v>
       </c>
       <c r="D20">
-        <v>0.04556169319820214</v>
+        <v>0.0234864522581546</v>
       </c>
       <c r="E20">
-        <v>0.1934155742146828</v>
+        <v>0.3876558361831499</v>
       </c>
       <c r="F20">
-        <v>3.594194048688593</v>
+        <v>1.176389932579113</v>
       </c>
       <c r="G20">
-        <v>0.0007337870465625076</v>
+        <v>1.089899065368883</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01462172695256125</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6019279377722739</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4171393582997851</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.901012467093707</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.041773962337672</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.363333688665307</v>
+      </c>
+      <c r="P20">
+        <v>0.4826373579876719</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.756691926211317</v>
+        <v>3.752175316544765</v>
       </c>
       <c r="C21">
-        <v>1.866663142472873</v>
+        <v>1.167976932565011</v>
       </c>
       <c r="D21">
-        <v>0.04891137962525249</v>
+        <v>0.02464981016936818</v>
       </c>
       <c r="E21">
-        <v>0.2226724445655464</v>
+        <v>0.4555069136147196</v>
       </c>
       <c r="F21">
-        <v>4.08843345054251</v>
+        <v>1.327308792602366</v>
       </c>
       <c r="G21">
-        <v>0.0007203312937200813</v>
+        <v>1.236515484726851</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02044247680614975</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6643021724584912</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4579869993277512</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.184341033100878</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.052883182988921</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.574731581958105</v>
+      </c>
+      <c r="P21">
+        <v>0.4448261738252839</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.341924072768848</v>
+        <v>4.033355861709936</v>
       </c>
       <c r="C22">
-        <v>2.029843196576621</v>
+        <v>1.254890069163935</v>
       </c>
       <c r="D22">
-        <v>0.05144675578938518</v>
+        <v>0.02570099183558128</v>
       </c>
       <c r="E22">
-        <v>0.2427398826608851</v>
+        <v>0.4869859468097744</v>
       </c>
       <c r="F22">
-        <v>4.427627618996439</v>
+        <v>1.421036476364435</v>
       </c>
       <c r="G22">
-        <v>0.0007115099373834822</v>
+        <v>1.326527888432793</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02446092204700734</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7022513014952381</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4822301856347835</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.376601490548538</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.06462652162196</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.692167620083012</v>
+      </c>
+      <c r="P22">
+        <v>0.4218568300904195</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.027554388393639</v>
+        <v>3.883100341163811</v>
       </c>
       <c r="C23">
-        <v>1.942164314957381</v>
+        <v>1.208437643292086</v>
       </c>
       <c r="D23">
-        <v>0.05005821091370422</v>
+        <v>0.02514102292066767</v>
       </c>
       <c r="E23">
-        <v>0.2319323325076894</v>
+        <v>0.4701516952456117</v>
       </c>
       <c r="F23">
-        <v>4.244943616238317</v>
+        <v>1.370781528859695</v>
       </c>
       <c r="G23">
-        <v>0.00071622284498285</v>
+        <v>1.278254953329196</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02227679314691322</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.681877525255544</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4691786289563424</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.273260214370538</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.057908189731165</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.629415411332502</v>
+      </c>
+      <c r="P23">
+        <v>0.4340274604899612</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.877492678927979</v>
+        <v>3.317763338835334</v>
       </c>
       <c r="C24">
-        <v>1.621836349337343</v>
+        <v>1.033826312299567</v>
       </c>
       <c r="D24">
-        <v>0.04551202911677166</v>
+        <v>0.02299696753677694</v>
       </c>
       <c r="E24">
-        <v>0.192951176206634</v>
+        <v>0.4070649084480209</v>
       </c>
       <c r="F24">
-        <v>3.586354060319081</v>
+        <v>1.185249590671219</v>
       </c>
       <c r="G24">
-        <v>0.000734006988931279</v>
+        <v>1.100241603981715</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01482909913989594</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.607215131211774</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4221027016046506</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.896484802683531</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.041659684734839</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.393263657323857</v>
+      </c>
+      <c r="P24">
+        <v>0.4820053945118179</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.702414405109494</v>
+        <v>2.714059997223558</v>
       </c>
       <c r="C25">
-        <v>1.295057350232412</v>
+        <v>0.8476252278197478</v>
       </c>
       <c r="D25">
-        <v>0.04177920934591839</v>
+        <v>0.02063574304384375</v>
       </c>
       <c r="E25">
-        <v>0.1540544722248995</v>
+        <v>0.3400815167566336</v>
       </c>
       <c r="F25">
-        <v>2.930751635132509</v>
+        <v>0.9937792727532866</v>
       </c>
       <c r="G25">
-        <v>0.0007532721345750671</v>
+        <v>0.9168611593769782</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.008307712463416467</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.531258474563316</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.375654942434835</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.513614194056501</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.039875666927998</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>1.141036331730334</v>
+      </c>
+      <c r="P25">
+        <v>0.537413124064722</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.273016769814319</v>
+        <v>2.133500748195843</v>
       </c>
       <c r="C2">
-        <v>0.711733757560097</v>
+        <v>0.7702467821076482</v>
       </c>
       <c r="D2">
-        <v>0.01885643975650808</v>
+        <v>0.02318152380070515</v>
       </c>
       <c r="E2">
-        <v>0.291334527452598</v>
+        <v>0.2857415791395042</v>
       </c>
       <c r="F2">
-        <v>0.8587577355449412</v>
+        <v>0.7875966305175837</v>
       </c>
       <c r="G2">
-        <v>0.7877397990893797</v>
+        <v>0.6892636253623436</v>
       </c>
       <c r="H2">
-        <v>0.004576611146551057</v>
+        <v>0.003914468857527664</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4785645553850202</v>
+        <v>0.492899221047935</v>
       </c>
       <c r="K2">
-        <v>0.3445357631140027</v>
+        <v>0.2988074472984579</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1764587129924955</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07228158820945296</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.95676296965771</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5810273175649243</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9479906425564906</v>
+      </c>
+      <c r="R2">
+        <v>0.601341722863399</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.97547849844355</v>
+        <v>1.86380111931976</v>
       </c>
       <c r="C3">
-        <v>0.6201085012759506</v>
+        <v>0.6670473511569526</v>
       </c>
       <c r="D3">
-        <v>0.01762579411073872</v>
+        <v>0.02108845577155449</v>
       </c>
       <c r="E3">
-        <v>0.2584999313781182</v>
+        <v>0.2543235011412435</v>
       </c>
       <c r="F3">
-        <v>0.7702976781841642</v>
+        <v>0.7123645893816644</v>
       </c>
       <c r="G3">
-        <v>0.7032260186559398</v>
+        <v>0.6185928656437625</v>
       </c>
       <c r="H3">
-        <v>0.002610605390118703</v>
+        <v>0.002219522422416409</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4445520459097736</v>
+        <v>0.4636416587916159</v>
       </c>
       <c r="K3">
-        <v>0.3250757202732331</v>
+        <v>0.2867907294793532</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1788315185317479</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06076825101875016</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.832456907306927</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6121952714069394</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8256719305777764</v>
+      </c>
+      <c r="R3">
+        <v>0.6263866747873301</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.793222501794702</v>
+        <v>1.69804884329605</v>
       </c>
       <c r="C4">
-        <v>0.5639974959261451</v>
+        <v>0.6039586882392314</v>
       </c>
       <c r="D4">
-        <v>0.01685819304309533</v>
+        <v>0.01979820084160977</v>
       </c>
       <c r="E4">
-        <v>0.2383917030327538</v>
+        <v>0.2350531583863571</v>
       </c>
       <c r="F4">
-        <v>0.7172817174675288</v>
+        <v>0.6670810594713856</v>
       </c>
       <c r="G4">
-        <v>0.6526021070477981</v>
+        <v>0.576251773229103</v>
       </c>
       <c r="H4">
-        <v>0.00164856547269232</v>
+        <v>0.00139191406418715</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4244098115359378</v>
+        <v>0.4459651579558397</v>
       </c>
       <c r="K4">
-        <v>0.313842322416221</v>
+        <v>0.279871448439998</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1803420483250413</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05451774555257671</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7563209255635357</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6320817331037869</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7506749519992724</v>
+      </c>
+      <c r="R4">
+        <v>0.642490269633246</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.719029014517304</v>
+        <v>1.630444151627472</v>
       </c>
       <c r="C5">
-        <v>0.5411575053293518</v>
+        <v>0.5783078620264916</v>
       </c>
       <c r="D5">
-        <v>0.01654242253864524</v>
+        <v>0.01927114009679087</v>
       </c>
       <c r="E5">
-        <v>0.2302041066690705</v>
+        <v>0.2272004486501231</v>
       </c>
       <c r="F5">
-        <v>0.6959758002625875</v>
+        <v>0.6488351007954662</v>
       </c>
       <c r="G5">
-        <v>0.632262440044272</v>
+        <v>0.5592361969521562</v>
       </c>
       <c r="H5">
-        <v>0.001313580983975715</v>
+        <v>0.001104412902271257</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4163748355982904</v>
+        <v>0.4388279188071778</v>
       </c>
       <c r="K5">
-        <v>0.3094320905333028</v>
+        <v>0.2771588855968261</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1809704996807788</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05217001838708413</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7253292936994242</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6403676184341478</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7201294332772719</v>
+      </c>
+      <c r="R5">
+        <v>0.6492301575904094</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.706713021524195</v>
+        <v>1.6192142973579</v>
       </c>
       <c r="C6">
-        <v>0.537366176756791</v>
+        <v>0.574051771346177</v>
       </c>
       <c r="D6">
-        <v>0.016489811282419</v>
+        <v>0.01918354570316794</v>
       </c>
       <c r="E6">
-        <v>0.2288447819592676</v>
+        <v>0.2258963761186195</v>
       </c>
       <c r="F6">
-        <v>0.6924552061107363</v>
+        <v>0.6458173028787684</v>
       </c>
       <c r="G6">
-        <v>0.6289017551584521</v>
+        <v>0.5564244716298674</v>
       </c>
       <c r="H6">
-        <v>0.001261273132921126</v>
+        <v>0.001059569697502427</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4150507157903007</v>
+        <v>0.4376465989770111</v>
       </c>
       <c r="K6">
-        <v>0.3087095405550002</v>
+        <v>0.2767146991729525</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1810756160420475</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05179204102156021</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7201848684978529</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6417542948931985</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7150580620541547</v>
+      </c>
+      <c r="R6">
+        <v>0.6503598935186332</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.792221629980816</v>
+        <v>1.695448729924323</v>
       </c>
       <c r="C7">
-        <v>0.5636893782319135</v>
+        <v>0.6023033923844139</v>
       </c>
       <c r="D7">
-        <v>0.01685394640218618</v>
+        <v>0.01987313524736578</v>
       </c>
       <c r="E7">
-        <v>0.238281263576738</v>
+        <v>0.2350635768203091</v>
       </c>
       <c r="F7">
-        <v>0.7169932057577881</v>
+        <v>0.6651143587450008</v>
       </c>
       <c r="G7">
-        <v>0.652326662002551</v>
+        <v>0.5798365523105957</v>
       </c>
       <c r="H7">
-        <v>0.001643822640220449</v>
+        <v>0.001385039156788448</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4243007650563584</v>
+        <v>0.4388548603926523</v>
       </c>
       <c r="K7">
-        <v>0.3137821822725542</v>
+        <v>0.2791215191335148</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1800204539146826</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05427059330750339</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7559028389450617</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6321927507687377</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7497743027104846</v>
+      </c>
+      <c r="R7">
+        <v>0.6427394569635219</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.170315744725713</v>
+        <v>2.034863507851242</v>
       </c>
       <c r="C8">
-        <v>0.6801037313205427</v>
+        <v>0.7301852271145322</v>
       </c>
       <c r="D8">
-        <v>0.01843462573208754</v>
+        <v>0.02274225772277205</v>
       </c>
       <c r="E8">
-        <v>0.2799982717321754</v>
+        <v>0.2752968209399995</v>
       </c>
       <c r="F8">
-        <v>0.8279697136121911</v>
+        <v>0.7557259245643451</v>
       </c>
       <c r="G8">
-        <v>0.7583184250125186</v>
+        <v>0.6774405589086712</v>
       </c>
       <c r="H8">
-        <v>0.003845042607873661</v>
+        <v>0.003270011098830405</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4666748644617229</v>
+        <v>0.4596387599297032</v>
       </c>
       <c r="K8">
-        <v>0.3376698611937456</v>
+        <v>0.2922120126118983</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1762553136553926</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06735051498625566</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9138550524541671</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5916145656535239</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9041411963384505</v>
+      </c>
+      <c r="R8">
+        <v>0.6104642159656919</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.916767995253224</v>
+        <v>2.706341821478304</v>
       </c>
       <c r="C9">
-        <v>0.9101196186299205</v>
+        <v>0.9884402875063358</v>
       </c>
       <c r="D9">
-        <v>0.02143752881374894</v>
+        <v>0.02802877532920078</v>
       </c>
       <c r="E9">
-        <v>0.3625341940622917</v>
+        <v>0.3541740613812649</v>
       </c>
       <c r="F9">
-        <v>1.057256619504273</v>
+        <v>0.9478799632705517</v>
       </c>
       <c r="G9">
-        <v>0.977619725659963</v>
+        <v>0.8644683014071433</v>
       </c>
       <c r="H9">
-        <v>0.01032345837065805</v>
+        <v>0.008846076297002431</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5562977111057563</v>
+        <v>0.528028400631527</v>
       </c>
       <c r="K9">
-        <v>0.3907815102331327</v>
+        <v>0.3245065831915213</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.170530829158082</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1005767196001344</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.225730679312349</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5182904766596028</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.209993044580131</v>
+      </c>
+      <c r="R9">
+        <v>0.5525914873275859</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.466935782242786</v>
+        <v>3.189342105067055</v>
       </c>
       <c r="C10">
-        <v>1.076454585264059</v>
+        <v>1.16687468865706</v>
       </c>
       <c r="D10">
-        <v>0.02418081891565294</v>
+        <v>0.03309298843729636</v>
       </c>
       <c r="E10">
-        <v>0.3981962954341185</v>
+        <v>0.3875226367574669</v>
       </c>
       <c r="F10">
-        <v>1.220543517872329</v>
+        <v>1.073158246008788</v>
       </c>
       <c r="G10">
-        <v>1.131705788914104</v>
+        <v>1.018698949139008</v>
       </c>
       <c r="H10">
-        <v>0.01635822034834877</v>
+        <v>0.01399444022618557</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.619121594247332</v>
+        <v>0.5341415190322607</v>
       </c>
       <c r="K10">
-        <v>0.4274030596121037</v>
+        <v>0.3417258802119818</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.163248354160995</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1256667762186936</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.414861636704941</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.4703416749391884</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.391629433146974</v>
+      </c>
+      <c r="R10">
+        <v>0.5189212790647346</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.68656686102554</v>
+        <v>3.378930065374846</v>
       </c>
       <c r="C11">
-        <v>1.112890662744434</v>
+        <v>1.184810401683706</v>
       </c>
       <c r="D11">
-        <v>0.03126341018155898</v>
+        <v>0.04297646993820337</v>
       </c>
       <c r="E11">
-        <v>0.2333103607399352</v>
+        <v>0.2215355975174518</v>
       </c>
       <c r="F11">
-        <v>1.173809703109271</v>
+        <v>1.009906251474192</v>
       </c>
       <c r="G11">
-        <v>1.066248015530618</v>
+        <v>1.010053844915078</v>
       </c>
       <c r="H11">
-        <v>0.03376712960518446</v>
+        <v>0.03130817465165237</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5805420958977834</v>
+        <v>0.4234367409723916</v>
       </c>
       <c r="K11">
-        <v>0.3849349556134314</v>
+        <v>0.2978392844797781</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1420443572136989</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1158353266828378</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.153452326389484</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.4724985642688466</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.127316009487977</v>
+      </c>
+      <c r="R11">
+        <v>0.545561572368122</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.755139985049652</v>
+        <v>3.443120488093427</v>
       </c>
       <c r="C12">
-        <v>1.108163729494549</v>
+        <v>1.166938679649661</v>
       </c>
       <c r="D12">
-        <v>0.03754154491304007</v>
+        <v>0.05085037286610827</v>
       </c>
       <c r="E12">
-        <v>0.145173116288662</v>
+        <v>0.131885584641207</v>
       </c>
       <c r="F12">
-        <v>1.100221045624238</v>
+        <v>0.9373909626065426</v>
       </c>
       <c r="G12">
-        <v>0.9801787719296584</v>
+        <v>0.9555203213100611</v>
       </c>
       <c r="H12">
-        <v>0.07099171335257637</v>
+        <v>0.06862248075345434</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.53522197737189</v>
+        <v>0.3579414919375807</v>
       </c>
       <c r="K12">
-        <v>0.3427305779193475</v>
+        <v>0.261365381055505</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1275558716294931</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1034554468190763</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9184626852543261</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.4951196581315784</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8937840896800466</v>
+      </c>
+      <c r="R12">
+        <v>0.5850006727404278</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.710618875398609</v>
+        <v>3.418797613093091</v>
       </c>
       <c r="C13">
-        <v>1.0715163853435</v>
+        <v>1.123932464030986</v>
       </c>
       <c r="D13">
-        <v>0.04346576965858873</v>
+        <v>0.05695932958155225</v>
       </c>
       <c r="E13">
-        <v>0.1100632414557348</v>
+        <v>0.09551501575406651</v>
       </c>
       <c r="F13">
-        <v>1.001673065238904</v>
+        <v>0.8566718843936911</v>
       </c>
       <c r="G13">
-        <v>0.8733355437240675</v>
+        <v>0.8541681393625993</v>
       </c>
       <c r="H13">
-        <v>0.1249484015368978</v>
+        <v>0.1228190215185663</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4820573097457554</v>
+        <v>0.3287797587248775</v>
       </c>
       <c r="K13">
-        <v>0.2981776032808554</v>
+        <v>0.229120082584906</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1170111507876932</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08911934421256262</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.691960617149519</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5332249127870838</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6722344037144481</v>
+      </c>
+      <c r="R13">
+        <v>0.6312839552013969</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.628537033322175</v>
+        <v>3.361630764826543</v>
       </c>
       <c r="C14">
-        <v>1.031688604913398</v>
+        <v>1.082458005313811</v>
       </c>
       <c r="D14">
-        <v>0.04749989068574223</v>
+        <v>0.06038166490203878</v>
       </c>
       <c r="E14">
-        <v>0.1168590188452061</v>
+        <v>0.101946720554043</v>
       </c>
       <c r="F14">
-        <v>0.9222696008337437</v>
+        <v>0.7963319161520275</v>
       </c>
       <c r="G14">
-        <v>0.7902598053719316</v>
+        <v>0.7649315333641766</v>
       </c>
       <c r="H14">
-        <v>0.17297765033031</v>
+        <v>0.1710647786464676</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4417791596405038</v>
+        <v>0.3218549231134773</v>
       </c>
       <c r="K14">
-        <v>0.2664398547414848</v>
+        <v>0.2083265111347998</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1111515005838584</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0783830418294329</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.542295381882667</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5675881238887825</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5269810982671004</v>
+      </c>
+      <c r="R14">
+        <v>0.6663273132723759</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.584533648300123</v>
+        <v>3.328457836352754</v>
       </c>
       <c r="C15">
-        <v>1.015291125554342</v>
+        <v>1.066767404925571</v>
       </c>
       <c r="D15">
-        <v>0.048273708186926</v>
+        <v>0.06069672018911376</v>
       </c>
       <c r="E15">
-        <v>0.1221393873677048</v>
+        <v>0.1074093891825534</v>
       </c>
       <c r="F15">
-        <v>0.8977037285230125</v>
+        <v>0.7793243269770045</v>
       </c>
       <c r="G15">
-        <v>0.7655280523377712</v>
+        <v>0.7347667539127514</v>
       </c>
       <c r="H15">
-        <v>0.1849934808575</v>
+        <v>0.1831691583437731</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4302980058323698</v>
+        <v>0.3257097650167822</v>
       </c>
       <c r="K15">
-        <v>0.2580765950389861</v>
+        <v>0.2037151470005867</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1102961698898213</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07528505588647505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5047817721691246</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5776250017449627</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.490972516622584</v>
+      </c>
+      <c r="R15">
+        <v>0.6744940333511309</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.356237556662904</v>
+        <v>3.141582874985886</v>
       </c>
       <c r="C16">
-        <v>0.9518869975335349</v>
+        <v>1.011671675895911</v>
       </c>
       <c r="D16">
-        <v>0.04563078132255072</v>
+        <v>0.05556938168739123</v>
       </c>
       <c r="E16">
-        <v>0.1152355471441098</v>
+        <v>0.1026138047147196</v>
       </c>
       <c r="F16">
-        <v>0.8484069531870233</v>
+        <v>0.755609788734759</v>
       </c>
       <c r="G16">
-        <v>0.722248635584819</v>
+        <v>0.6597245730629595</v>
       </c>
       <c r="H16">
-        <v>0.17018403911419</v>
+        <v>0.1687283858771167</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4144748786846009</v>
+        <v>0.3738845173052567</v>
       </c>
       <c r="K16">
-        <v>0.251497363545667</v>
+        <v>0.2070832576863815</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1156548500940247</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07010776393762796</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4778224593883991</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5862935617463592</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4681862497432263</v>
+      </c>
+      <c r="R16">
+        <v>0.6671267127235154</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.225201005716997</v>
+        <v>3.025952332122472</v>
       </c>
       <c r="C17">
-        <v>0.9243881220082244</v>
+        <v>0.9893760455125005</v>
       </c>
       <c r="D17">
-        <v>0.04144295195379755</v>
+        <v>0.05017466092149192</v>
       </c>
       <c r="E17">
-        <v>0.1011019798001369</v>
+        <v>0.08973073845499169</v>
       </c>
       <c r="F17">
-        <v>0.852684735366438</v>
+        <v>0.7676277802350882</v>
       </c>
       <c r="G17">
-        <v>0.7329036931966613</v>
+        <v>0.6535120829501011</v>
       </c>
       <c r="H17">
-        <v>0.131488584270528</v>
+        <v>0.1301922200692331</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.423674701553054</v>
+        <v>0.4097048258691132</v>
       </c>
       <c r="K17">
-        <v>0.2632234211344056</v>
+        <v>0.2202919003990118</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1230601609022663</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0714287122149635</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5328912454224124</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5747369698624496</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5242245433584003</v>
+      </c>
+      <c r="R17">
+        <v>0.6454556717905007</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.162220128257502</v>
+        <v>2.96235096929064</v>
       </c>
       <c r="C18">
-        <v>0.9244903808854872</v>
+        <v>0.9957095672573644</v>
       </c>
       <c r="D18">
-        <v>0.03582768579319406</v>
+        <v>0.04393401421888399</v>
       </c>
       <c r="E18">
-        <v>0.1070150658487732</v>
+        <v>0.09635658083284415</v>
       </c>
       <c r="F18">
-        <v>0.9038668723939907</v>
+        <v>0.8156847817022737</v>
       </c>
       <c r="G18">
-        <v>0.7922127077583951</v>
+        <v>0.6980176042121684</v>
       </c>
       <c r="H18">
-        <v>0.07885658083007741</v>
+        <v>0.07756425567036729</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4558049803604263</v>
+        <v>0.4498794146708605</v>
       </c>
       <c r="K18">
-        <v>0.2927732876569777</v>
+        <v>0.2453878426129315</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1338650315557359</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07903744513330935</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6780800104871503</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5491701836931995</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6684836175836537</v>
+      </c>
+      <c r="R18">
+        <v>0.6114705310974813</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.15853121530472</v>
+        <v>2.947000961692936</v>
       </c>
       <c r="C19">
-        <v>0.9470367250598599</v>
+        <v>1.026177481496148</v>
       </c>
       <c r="D19">
-        <v>0.02998921245948338</v>
+        <v>0.03775239476905057</v>
       </c>
       <c r="E19">
-        <v>0.1706076716205693</v>
+        <v>0.160279798781378</v>
       </c>
       <c r="F19">
-        <v>0.990840821321143</v>
+        <v>0.8920176188928366</v>
       </c>
       <c r="G19">
-        <v>0.88923750212291</v>
+        <v>0.7794063884234532</v>
       </c>
       <c r="H19">
-        <v>0.03513691658302776</v>
+        <v>0.03369116222595636</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5052231579463182</v>
+        <v>0.4961689301246679</v>
       </c>
       <c r="K19">
-        <v>0.3361723807475485</v>
+        <v>0.2799289727292944</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1471884742289546</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09186923577398076</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9067908251954506</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5208902008257361</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8948066589763997</v>
+      </c>
+      <c r="R19">
+        <v>0.5748519009427966</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.321874306092127</v>
+        <v>3.068631280644922</v>
       </c>
       <c r="C20">
-        <v>1.032440546762672</v>
+        <v>1.124556030758868</v>
       </c>
       <c r="D20">
-        <v>0.0234864522581546</v>
+        <v>0.03145324335329036</v>
       </c>
       <c r="E20">
-        <v>0.3876558361831499</v>
+        <v>0.3771823027985235</v>
       </c>
       <c r="F20">
-        <v>1.176389932579113</v>
+        <v>1.045506275782316</v>
       </c>
       <c r="G20">
-        <v>1.089899065368883</v>
+        <v>0.9628846956571522</v>
       </c>
       <c r="H20">
-        <v>0.01462172695256125</v>
+        <v>0.01253603431473937</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6019279377722739</v>
+        <v>0.5563033591686661</v>
       </c>
       <c r="K20">
-        <v>0.4171393582997851</v>
+        <v>0.3392391486194128</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1659141360334075</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1197057930632823</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.363333688665307</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.4826373579876719</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.343957680554169</v>
+      </c>
+      <c r="R20">
+        <v>0.5265142553979842</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.752175316544765</v>
+        <v>3.408817936294838</v>
       </c>
       <c r="C21">
-        <v>1.167976932565011</v>
+        <v>1.24502705530972</v>
       </c>
       <c r="D21">
-        <v>0.02464981016936818</v>
+        <v>0.0361101943167057</v>
       </c>
       <c r="E21">
-        <v>0.4555069136147196</v>
+        <v>0.4456728933500997</v>
       </c>
       <c r="F21">
-        <v>1.327308792602366</v>
+        <v>1.129834757235471</v>
       </c>
       <c r="G21">
-        <v>1.236515484726851</v>
+        <v>1.18320779739534</v>
       </c>
       <c r="H21">
-        <v>0.02044247680614975</v>
+        <v>0.01735347096241535</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6643021724584912</v>
+        <v>0.4514826003938737</v>
       </c>
       <c r="K21">
-        <v>0.4579869993277512</v>
+        <v>0.3487919653330209</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1589470963241446</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1384012414503246</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.574731581958105</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.4448261738252839</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.538581539129297</v>
+      </c>
+      <c r="R21">
+        <v>0.5027200347342529</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.033355861709936</v>
+        <v>3.627856761445742</v>
       </c>
       <c r="C22">
-        <v>1.254890069163935</v>
+        <v>1.319026497829555</v>
       </c>
       <c r="D22">
-        <v>0.02570099183558128</v>
+        <v>0.03974321252336921</v>
       </c>
       <c r="E22">
-        <v>0.4869859468097744</v>
+        <v>0.4778129225856134</v>
       </c>
       <c r="F22">
-        <v>1.421036476364435</v>
+        <v>1.177363214526267</v>
       </c>
       <c r="G22">
-        <v>1.326527888432793</v>
+        <v>1.332340565318532</v>
       </c>
       <c r="H22">
-        <v>0.02446092204700734</v>
+        <v>0.02065215976787593</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7022513014952381</v>
+        <v>0.3811424787461704</v>
       </c>
       <c r="K22">
-        <v>0.4822301856347835</v>
+        <v>0.3518926274272971</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1533609695093929</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1497363573801991</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.692167620083012</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.4218568300904195</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.644096686185463</v>
+      </c>
+      <c r="R22">
+        <v>0.4907992499915608</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.883100341163811</v>
+        <v>3.515626446500221</v>
       </c>
       <c r="C23">
-        <v>1.208437643292086</v>
+        <v>1.283169984646349</v>
       </c>
       <c r="D23">
-        <v>0.02514102292066767</v>
+        <v>0.03753162211832262</v>
       </c>
       <c r="E23">
-        <v>0.4701516952456117</v>
+        <v>0.4602590407268963</v>
       </c>
       <c r="F23">
-        <v>1.370781528859695</v>
+        <v>1.156499020064089</v>
       </c>
       <c r="G23">
-        <v>1.278254953329196</v>
+        <v>1.240932860319077</v>
       </c>
       <c r="H23">
-        <v>0.02227679314691322</v>
+        <v>0.01887963142076199</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.681877525255544</v>
+        <v>0.4327038558077732</v>
       </c>
       <c r="K23">
-        <v>0.4691786289563424</v>
+        <v>0.3520105308047619</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1569353858095823</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1444030545863626</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.629415411332502</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.4340274604899612</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.589138119251771</v>
+      </c>
+      <c r="R23">
+        <v>0.4961783093213121</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.317763338835334</v>
+        <v>3.063891767308519</v>
       </c>
       <c r="C24">
-        <v>1.033826312299567</v>
+        <v>1.126869204042237</v>
       </c>
       <c r="D24">
-        <v>0.02299696753677694</v>
+        <v>0.03087529899953978</v>
       </c>
       <c r="E24">
-        <v>0.4070649084480209</v>
+        <v>0.3966260718373391</v>
       </c>
       <c r="F24">
-        <v>1.185249590671219</v>
+        <v>1.053513201088691</v>
       </c>
       <c r="G24">
-        <v>1.100241603981715</v>
+        <v>0.9710116066951571</v>
       </c>
       <c r="H24">
-        <v>0.01482909913989594</v>
+        <v>0.01271714619516917</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.607215131211774</v>
+        <v>0.562191718371281</v>
       </c>
       <c r="K24">
-        <v>0.4221027016046506</v>
+        <v>0.3433090899772822</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1675601149628783</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1211226267005294</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.393263657323857</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.4820053945118179</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.373640394857816</v>
+      </c>
+      <c r="R24">
+        <v>0.5245122686415904</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.714059997223558</v>
+        <v>2.527024640283798</v>
       </c>
       <c r="C25">
-        <v>0.8476252278197478</v>
+        <v>0.9201287309809345</v>
       </c>
       <c r="D25">
-        <v>0.02063574304384375</v>
+        <v>0.02647792946270755</v>
       </c>
       <c r="E25">
-        <v>0.3400815167566336</v>
+        <v>0.3325824223753528</v>
       </c>
       <c r="F25">
-        <v>0.9937792727532866</v>
+        <v>0.8973374890224903</v>
       </c>
       <c r="G25">
-        <v>0.9168611593769782</v>
+        <v>0.8071296969524013</v>
       </c>
       <c r="H25">
-        <v>0.008307712463416467</v>
+        <v>0.007119172260350193</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.531258474563316</v>
+        <v>0.5190650220528426</v>
       </c>
       <c r="K25">
-        <v>0.375654942434835</v>
+        <v>0.3162831034488747</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1724203014663566</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09118742387518353</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.141036331730334</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.537413124064722</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.127746041559462</v>
+      </c>
+      <c r="R25">
+        <v>0.5672433302677895</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
